--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/01. Báo giá bảo hành/BG_PhucHung_301025.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 10/01. Báo giá bảo hành/BG_PhucHung_301025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 10\01. Báo giá bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D4C02E-0EDC-41CB-B6CE-B41B99967007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0FB4E-AC7C-4DDD-BE77-7BAF2D22CD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Báo giá đại lý không sửa</t>
+  </si>
+  <si>
+    <t>PHIẾU BÁO GIÁ SỬA CHỮA</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +210,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -336,11 +346,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -401,6 +437,78 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,76 +518,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="84" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -868,81 +913,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="38"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="33" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="39" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="41"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="42" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
-    </row>
-    <row r="5" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -952,11 +997,11 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -964,182 +1009,183 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="AA7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C11" s="21">
         <v>8011074330341</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="16">
         <v>200000</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J11" s="16">
         <v>200000</v>
       </c>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="8">
-        <f>SUM(J10:J10)</f>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="8">
+        <f>SUM(J11:J11)</f>
         <v>200000</v>
       </c>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="25" t="s">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="23" t="s">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="25" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1156,18 +1202,16 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,7 +1220,9 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1197,40 +1243,50 @@
       <c r="AA20" s="2"/>
     </row>
     <row r="21" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="22" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="F23" s="4"/>
+    <row r="23" spans="1:27" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="F24" s="4"/>
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -1284,27 +1340,31 @@
     <row r="41" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA41" s="2"/>
     </row>
+    <row r="42" spans="27:27" x14ac:dyDescent="0.25">
+      <c r="AA42" s="2"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="18">
-    <mergeCell ref="F13:J13"/>
+  <mergeCells count="19">
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F14:J14"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D4:J4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="http://vnetgps.vn" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
